--- a/others/ゲーム仕様書/02_マッチング画面/素材一覧/仕様書(マッチング画面)_素材一覧_ver1.00_2015_10_28_1221.xlsx
+++ b/others/ゲーム仕様書/02_マッチング画面/素材一覧/仕様書(マッチング画面)_素材一覧_ver1.00_2015_10_28_1221.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$46</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ファイルネーム（タイトルのＳＥの一つなら title_se_02　など
 この仕様書を見て作成してもらったファイルにつける名前）</t>
@@ -58,18 +58,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>＜グラフィック＞</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>＜サウンド＞</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>＜プログラム＞</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>作成者：松本　祥平
 作成日：2015/10/28</t>
     <rPh sb="0" eb="3">
@@ -90,209 +78,6 @@
     <t xml:space="preserve">マッチング画面 </t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・おじいちゃんキャラのモデル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・こどもキャラのモデル（４種色違い）＊誤認が起きないように</t>
-    <rPh sb="13" eb="14">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゴニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・マッチング画面を動かすプログラム</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・マッチング画面で流すBGM</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・キャラクターの決定SE</t>
-    <rPh sb="8" eb="10">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・全員が揃った（ゲームが始められる）事を知らせるSE</t>
-    <rPh sb="1" eb="3">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ソロ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・遠目で見たゲームフィールドマップ</t>
-    <rPh sb="1" eb="3">
-      <t>トオメ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・ゲーム待機画面のBGM</t>
-    <rPh sb="4" eb="6">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・ゲームメインと同じキャラ操作のSE（＊ゲームメインで記述）</t>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・他の参加者が準備完了にした事を知らせるSE</t>
-    <rPh sb="1" eb="2">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・人型のイラスト（おじいちゃんと子供側で違いがあるように）</t>
-    <rPh sb="1" eb="3">
-      <t>ヒトガタ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・「マッチング」の文字画像</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・「VS」の文字画像</t>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・おじいちゃんの操作について書かれてある画像</t>
-    <rPh sb="8" eb="10">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・子供の操作について書かれてある画像</t>
-    <rPh sb="1" eb="3">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・ゲームメインのフィールドマップ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・背景画像</t>
-    <rPh sb="1" eb="3">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -644,6 +429,522 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="434340" y="6172200"/>
+          <a:ext cx="2331720" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>＜プログラム＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・マッチング画面を動かすプログラム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="1516380"/>
+          <a:ext cx="4899660" cy="2453640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>＜グラフィック＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・「マッチング」の文字画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・背景画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・おじいちゃんキャラのモデル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・こどもキャラのモデル（４種色違い）＊誤認が起きないように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・遠目で見たゲームフィールドマップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・人型のイラスト（おじいちゃんと子供側で違いがあるように）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>VS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>」の文字画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・おじいちゃんの操作について書かれてある画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・子供の操作について書かれてある画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・ゲームメインのフィールドマップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>// EOF</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4259580"/>
+          <a:ext cx="4899660" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>＜サウンド＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・マッチング画面で流す</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>BGM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・キャラクターの決定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・他の参加者が準備完了にした事を知らせる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・全員が揃った（ゲームが始められる）事を知らせる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・ゲーム待機画面の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>BGM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・ゲームメインと同じキャラ操作の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（＊ゲームメインで記述）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>// EOF</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -931,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1312,7 @@
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1029,7 +1330,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -1191,9 +1492,7 @@
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1227,9 +1526,7 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1263,9 +1560,7 @@
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1299,9 +1594,7 @@
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1335,9 +1628,7 @@
     </row>
     <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1371,9 +1662,7 @@
     </row>
     <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1407,9 +1696,7 @@
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1443,9 +1730,7 @@
     </row>
     <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1479,9 +1764,7 @@
     </row>
     <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1515,9 +1798,7 @@
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1551,9 +1832,7 @@
     </row>
     <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1587,9 +1866,7 @@
     </row>
     <row r="19" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1623,9 +1900,7 @@
     </row>
     <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1659,9 +1934,7 @@
     </row>
     <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1695,9 +1968,7 @@
     </row>
     <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1731,9 +2002,7 @@
     </row>
     <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1767,9 +2036,7 @@
     </row>
     <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1803,9 +2070,7 @@
     </row>
     <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1839,9 +2104,7 @@
     </row>
     <row r="26" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1875,9 +2138,7 @@
     </row>
     <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2555,448 +2816,6 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
     </row>
-    <row r="47" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-    </row>
-    <row r="57" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:P4"/>
@@ -3008,6 +2827,7 @@
   <phoneticPr fontId="4"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
